--- a/src/spreadsheets/shippingCredentials.xlsx
+++ b/src/spreadsheets/shippingCredentials.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="19">
   <si>
     <t>John Doe Mária</t>
   </si>
@@ -56,6 +56,21 @@
   </si>
   <si>
     <t>06706538702</t>
+  </si>
+  <si>
+    <t>ahmad</t>
+  </si>
+  <si>
+    <t>amman</t>
+  </si>
+  <si>
+    <t>asdq</t>
+  </si>
+  <si>
+    <t>0797546987</t>
+  </si>
+  <si>
+    <t>ahmed.ame2@gmail,com</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1331,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -4814,6 +4829,47 @@
         <v>11760</v>
       </c>
     </row>
+    <row r="126" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="1">
+        <v>11</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I126" s="1">
+        <v>15</v>
+      </c>
+      <c r="J126" s="1">
+        <v>20</v>
+      </c>
+      <c r="K126" s="1">
+        <v>15</v>
+      </c>
+      <c r="L126" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N126" s="1">
+        <v>11760</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/src/spreadsheets/shippingCredentials.xlsx
+++ b/src/spreadsheets/shippingCredentials.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="22">
   <si>
     <t>John Doe Mária</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>ahmed.ame2@gmail,com</t>
+  </si>
+  <si>
+    <t>amman 12 34</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>forpeoplpe13@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N126"/>
+  <dimension ref="A1:N127"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -4870,6 +4879,47 @@
         <v>11760</v>
       </c>
     </row>
+    <row r="127" ht="13.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" s="1">
+        <v>11121</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I127" s="1">
+        <v>15</v>
+      </c>
+      <c r="J127" s="1">
+        <v>20</v>
+      </c>
+      <c r="K127" s="1">
+        <v>15</v>
+      </c>
+      <c r="L127" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N127" s="1">
+        <v>36792</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
